--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H2">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I2">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J2">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.666771333333333</v>
+        <v>0.03844333333333334</v>
       </c>
       <c r="N2">
-        <v>17.000314</v>
+        <v>0.11533</v>
       </c>
       <c r="O2">
-        <v>0.9648745059153377</v>
+        <v>0.006478890266597937</v>
       </c>
       <c r="P2">
-        <v>0.9648745059153376</v>
+        <v>0.006478890266597936</v>
       </c>
       <c r="Q2">
-        <v>9.514577069922666</v>
+        <v>0.07205956796</v>
       </c>
       <c r="R2">
-        <v>85.63119362930399</v>
+        <v>0.64853611164</v>
       </c>
       <c r="S2">
-        <v>0.1136766632890578</v>
+        <v>0.0009343769785967999</v>
       </c>
       <c r="T2">
-        <v>0.1136766632890578</v>
+        <v>0.0009343769785967996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H3">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I3">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J3">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2062943333333333</v>
+        <v>5.666771333333333</v>
       </c>
       <c r="N3">
-        <v>0.618883</v>
+        <v>17.000314</v>
       </c>
       <c r="O3">
-        <v>0.03512549408466232</v>
+        <v>0.95502617622222</v>
       </c>
       <c r="P3">
-        <v>0.03512549408466231</v>
+        <v>0.9550261762222199</v>
       </c>
       <c r="Q3">
-        <v>0.3463706611986667</v>
+        <v>10.622000190968</v>
       </c>
       <c r="R3">
-        <v>3.117335950788</v>
+        <v>95.598001718712</v>
       </c>
       <c r="S3">
-        <v>0.004138309116309378</v>
+        <v>0.1377326110337022</v>
       </c>
       <c r="T3">
-        <v>0.004138309116309377</v>
+        <v>0.1377326110337022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.197979</v>
+        <v>1.874436</v>
       </c>
       <c r="H4">
-        <v>9.593937</v>
+        <v>5.623308</v>
       </c>
       <c r="I4">
-        <v>0.2243997110431275</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J4">
-        <v>0.2243997110431275</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.666771333333333</v>
+        <v>0.2284146666666667</v>
       </c>
       <c r="N4">
-        <v>17.000314</v>
+        <v>0.685244</v>
       </c>
       <c r="O4">
-        <v>0.9648745059153377</v>
+        <v>0.03849493351118214</v>
       </c>
       <c r="P4">
-        <v>0.9648745059153376</v>
+        <v>0.03849493351118213</v>
       </c>
       <c r="Q4">
-        <v>18.122215721802</v>
+        <v>0.428148674128</v>
       </c>
       <c r="R4">
-        <v>163.099941496218</v>
+        <v>3.853338067151999</v>
       </c>
       <c r="S4">
-        <v>0.2165175603202822</v>
+        <v>0.005551688357943168</v>
       </c>
       <c r="T4">
-        <v>0.2165175603202822</v>
+        <v>0.005551688357943165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>9.593937</v>
       </c>
       <c r="I5">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J5">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2062943333333333</v>
+        <v>0.03844333333333334</v>
       </c>
       <c r="N5">
-        <v>0.618883</v>
+        <v>0.11533</v>
       </c>
       <c r="O5">
-        <v>0.03512549408466232</v>
+        <v>0.006478890266597937</v>
       </c>
       <c r="P5">
-        <v>0.03512549408466231</v>
+        <v>0.006478890266597936</v>
       </c>
       <c r="Q5">
-        <v>0.659724945819</v>
+        <v>0.12294097269</v>
       </c>
       <c r="R5">
-        <v>5.937524512371</v>
+        <v>1.10646875421</v>
       </c>
       <c r="S5">
-        <v>0.007882150722845309</v>
+        <v>0.001594142427714798</v>
       </c>
       <c r="T5">
-        <v>0.007882150722845309</v>
+        <v>0.001594142427714798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.454888</v>
+        <v>3.197979</v>
       </c>
       <c r="H6">
-        <v>22.364664</v>
+        <v>9.593937</v>
       </c>
       <c r="I6">
-        <v>0.5231037205243934</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J6">
-        <v>0.5231037205243934</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,27 +809,27 @@
         <v>17.000314</v>
       </c>
       <c r="O6">
-        <v>0.9648745059153377</v>
+        <v>0.95502617622222</v>
       </c>
       <c r="P6">
-        <v>0.9648745059153376</v>
+        <v>0.9550261762222199</v>
       </c>
       <c r="Q6">
-        <v>42.24514561161067</v>
+        <v>18.122215721802</v>
       </c>
       <c r="R6">
-        <v>380.206310504496</v>
+        <v>163.099941496218</v>
       </c>
       <c r="S6">
-        <v>0.504729443883449</v>
+        <v>0.2349858825273032</v>
       </c>
       <c r="T6">
-        <v>0.5047294438834489</v>
+        <v>0.2349858825273031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.454888</v>
+        <v>3.197979</v>
       </c>
       <c r="H7">
-        <v>22.364664</v>
+        <v>9.593937</v>
       </c>
       <c r="I7">
-        <v>0.5231037205243934</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J7">
-        <v>0.5231037205243934</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2062943333333333</v>
+        <v>0.2284146666666667</v>
       </c>
       <c r="N7">
-        <v>0.618883</v>
+        <v>0.685244</v>
       </c>
       <c r="O7">
-        <v>0.03512549408466232</v>
+        <v>0.03849493351118214</v>
       </c>
       <c r="P7">
-        <v>0.03512549408466231</v>
+        <v>0.03849493351118213</v>
       </c>
       <c r="Q7">
-        <v>1.537901150034667</v>
+        <v>0.730465307292</v>
       </c>
       <c r="R7">
-        <v>13.841110350312</v>
+        <v>6.574187765628</v>
       </c>
       <c r="S7">
-        <v>0.01837427664094443</v>
+        <v>0.009471746585771258</v>
       </c>
       <c r="T7">
-        <v>0.01837427664094442</v>
+        <v>0.009471746585771256</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.919382666666667</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H8">
-        <v>5.758148</v>
+        <v>20.475868</v>
       </c>
       <c r="I8">
-        <v>0.134681596027112</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J8">
-        <v>0.134681596027112</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>5.666771333333333</v>
+        <v>0.03844333333333334</v>
       </c>
       <c r="N8">
-        <v>17.000314</v>
+        <v>0.11533</v>
       </c>
       <c r="O8">
-        <v>0.9648745059153377</v>
+        <v>0.006478890266597937</v>
       </c>
       <c r="P8">
-        <v>0.9648745059153376</v>
+        <v>0.006478890266597936</v>
       </c>
       <c r="Q8">
-        <v>10.87670267316355</v>
+        <v>0.2623868729377778</v>
       </c>
       <c r="R8">
-        <v>97.890324058472</v>
+        <v>2.36148185644</v>
       </c>
       <c r="S8">
-        <v>0.1299508384225488</v>
+        <v>0.003402299798621541</v>
       </c>
       <c r="T8">
-        <v>0.1299508384225488</v>
+        <v>0.003402299798621541</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.825289333333334</v>
+      </c>
+      <c r="H9">
+        <v>20.475868</v>
+      </c>
+      <c r="I9">
+        <v>0.5251361975000832</v>
+      </c>
+      <c r="J9">
+        <v>0.5251361975000832</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.666771333333333</v>
+      </c>
+      <c r="N9">
+        <v>17.000314</v>
+      </c>
+      <c r="O9">
+        <v>0.95502617622222</v>
+      </c>
+      <c r="P9">
+        <v>0.9550261762222199</v>
+      </c>
+      <c r="Q9">
+        <v>38.67735393583911</v>
+      </c>
+      <c r="R9">
+        <v>348.096185422552</v>
+      </c>
+      <c r="S9">
+        <v>0.501518814694381</v>
+      </c>
+      <c r="T9">
+        <v>0.501518814694381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.919382666666667</v>
-      </c>
-      <c r="H9">
-        <v>5.758148</v>
-      </c>
-      <c r="I9">
-        <v>0.134681596027112</v>
-      </c>
-      <c r="J9">
-        <v>0.134681596027112</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.2062943333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.618883</v>
-      </c>
-      <c r="O9">
-        <v>0.03512549408466232</v>
-      </c>
-      <c r="P9">
-        <v>0.03512549408466231</v>
-      </c>
-      <c r="Q9">
-        <v>0.3959577676315555</v>
-      </c>
-      <c r="R9">
-        <v>3.563619908684</v>
-      </c>
-      <c r="S9">
-        <v>0.004730757604563201</v>
-      </c>
-      <c r="T9">
-        <v>0.004730757604563201</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.825289333333334</v>
+      </c>
+      <c r="H10">
+        <v>20.475868</v>
+      </c>
+      <c r="I10">
+        <v>0.5251361975000832</v>
+      </c>
+      <c r="J10">
+        <v>0.5251361975000832</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2284146666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.685244</v>
+      </c>
+      <c r="O10">
+        <v>0.03849493351118214</v>
+      </c>
+      <c r="P10">
+        <v>0.03849493351118213</v>
+      </c>
+      <c r="Q10">
+        <v>1.558996187976889</v>
+      </c>
+      <c r="R10">
+        <v>14.030965691792</v>
+      </c>
+      <c r="S10">
+        <v>0.02021508300708072</v>
+      </c>
+      <c r="T10">
+        <v>0.02021508300708071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.099475</v>
+      </c>
+      <c r="H11">
+        <v>3.298425</v>
+      </c>
+      <c r="I11">
+        <v>0.08459335458888541</v>
+      </c>
+      <c r="J11">
+        <v>0.08459335458888539</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03844333333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.11533</v>
+      </c>
+      <c r="O11">
+        <v>0.006478890266597937</v>
+      </c>
+      <c r="P11">
+        <v>0.006478890266597936</v>
+      </c>
+      <c r="Q11">
+        <v>0.04226748391666667</v>
+      </c>
+      <c r="R11">
+        <v>0.38040735525</v>
+      </c>
+      <c r="S11">
+        <v>0.0005480710616647975</v>
+      </c>
+      <c r="T11">
+        <v>0.0005480710616647974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.099475</v>
+      </c>
+      <c r="H12">
+        <v>3.298425</v>
+      </c>
+      <c r="I12">
+        <v>0.08459335458888541</v>
+      </c>
+      <c r="J12">
+        <v>0.08459335458888539</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.666771333333333</v>
+      </c>
+      <c r="N12">
+        <v>17.000314</v>
+      </c>
+      <c r="O12">
+        <v>0.95502617622222</v>
+      </c>
+      <c r="P12">
+        <v>0.9550261762222199</v>
+      </c>
+      <c r="Q12">
+        <v>6.230473411716666</v>
+      </c>
+      <c r="R12">
+        <v>56.07426070544999</v>
+      </c>
+      <c r="S12">
+        <v>0.08078886796683361</v>
+      </c>
+      <c r="T12">
+        <v>0.0807888679668336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.099475</v>
+      </c>
+      <c r="H13">
+        <v>3.298425</v>
+      </c>
+      <c r="I13">
+        <v>0.08459335458888541</v>
+      </c>
+      <c r="J13">
+        <v>0.08459335458888539</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2284146666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.685244</v>
+      </c>
+      <c r="O13">
+        <v>0.03849493351118214</v>
+      </c>
+      <c r="P13">
+        <v>0.03849493351118213</v>
+      </c>
+      <c r="Q13">
+        <v>0.2511362156333333</v>
+      </c>
+      <c r="R13">
+        <v>2.2602259407</v>
+      </c>
+      <c r="S13">
+        <v>0.003256415560386998</v>
+      </c>
+      <c r="T13">
+        <v>0.003256415560386997</v>
       </c>
     </row>
   </sheetData>
